--- a/biology/Botanique/Bellevalia_romana/Bellevalia_romana.xlsx
+++ b/biology/Botanique/Bellevalia_romana/Bellevalia_romana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacinthe romaine
-Bellevalia romana, la jacinthe romaine est une plante herbacée de la famille des Liliaceae selon la classification classique de Cronquist (1981)[1], ou des Asparagaceae selon les classifications phylogénétiques (classification phylogénétique APG II (2003)[2] et classification phylogénétique APG III (2009)[3]).
+Bellevalia romana, la jacinthe romaine est une plante herbacée de la famille des Liliaceae selon la classification classique de Cronquist (1981), ou des Asparagaceae selon les classifications phylogénétiques (classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009)).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hyacinthus romanus L.</t>
         </is>
